--- a/2_Fea_Groups_Experiment/evaluation/5Layer_Mean_R2.xlsx
+++ b/2_Fea_Groups_Experiment/evaluation/5Layer_Mean_R2.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.29721707390285</v>
+        <v>0.2929002730426594</v>
       </c>
     </row>
     <row r="2">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.441497486992967</v>
+        <v>0.4376799114114038</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4924189070377453</v>
+        <v>0.4888390839641307</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5233075900141324</v>
+        <v>0.5245791378031093</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5364500370645586</v>
+        <v>0.5336611447270528</v>
       </c>
     </row>
   </sheetData>
